--- a/Test/Template_2.xlsx
+++ b/Test/Template_2.xlsx
@@ -1,33 +1,161 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ExcelAPI\Test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1511E48-4987-4130-A8E2-39921F951B65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14160" windowWidth="25820" xWindow="-110" yWindow="-110"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Person1</t>
+  </si>
+  <si>
+    <t>Task1</t>
+  </si>
+  <si>
+    <t>10/11</t>
+  </si>
+  <si>
+    <t>10/21</t>
+  </si>
+  <si>
+    <t>11/11</t>
+  </si>
+  <si>
+    <t>11/21</t>
+  </si>
+  <si>
+    <t>Task2</t>
+  </si>
+  <si>
+    <t>10/12</t>
+  </si>
+  <si>
+    <t>10/22</t>
+  </si>
+  <si>
+    <t>11/12</t>
+  </si>
+  <si>
+    <t>11/22</t>
+  </si>
+  <si>
+    <t>Person2</t>
+  </si>
+  <si>
+    <t>Task3</t>
+  </si>
+  <si>
+    <t>10/13</t>
+  </si>
+  <si>
+    <t>10/23</t>
+  </si>
+  <si>
+    <t>11/13</t>
+  </si>
+  <si>
+    <t>11/23</t>
+  </si>
+  <si>
+    <t>Task4</t>
+  </si>
+  <si>
+    <t>10/14</t>
+  </si>
+  <si>
+    <t>10/24</t>
+  </si>
+  <si>
+    <t>11/14</t>
+  </si>
+  <si>
+    <t>11/24</t>
+  </si>
+  <si>
+    <t>Task5</t>
+  </si>
+  <si>
+    <t>10/15</t>
+  </si>
+  <si>
+    <t>10/25</t>
+  </si>
+  <si>
+    <t>11/15</t>
+  </si>
+  <si>
+    <t>11/25</t>
+  </si>
+  <si>
+    <t>Person3</t>
+  </si>
+  <si>
+    <t>Task6</t>
+  </si>
+  <si>
+    <t>10/16</t>
+  </si>
+  <si>
+    <t>10/26</t>
+  </si>
+  <si>
+    <t>11/16</t>
+  </si>
+  <si>
+    <t>11/26</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -39,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -97,64 +225,42 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -454,248 +560,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="6" min="3" style="6" width="10.453125"/>
+    <col min="3" max="6" width="10.453125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="8" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="8" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="C1" s="8" t="inlineStr">
-        <is>
-          <t>Coding</t>
-        </is>
-      </c>
-      <c r="D1" s="9" t="n"/>
-      <c r="E1" s="8" t="inlineStr">
-        <is>
-          <t>Testing</t>
-        </is>
-      </c>
-      <c r="F1" s="9" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="10" t="n"/>
-      <c r="B2" s="10" t="n"/>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>Start Date</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>End Date</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>Start Date</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>End Date</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>Person1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Task1</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>10/11</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>10/21</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>11/11</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>11/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Task2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10/12</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10/22</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>11/12</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>11/22</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>Person2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Task3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10/13</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10/23</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>11/13</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>11/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Task4</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10/14</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10/24</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>11/14</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>11/24</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Task5</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10/15</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10/25</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>11/15</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>11/25</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Person3</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Task6</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10/16</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10/26</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>11/16</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>11/26</t>
-        </is>
-      </c>
-    </row>
-    <row r="9"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A3:A4"/>
@@ -705,6 +727,173 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE09B042-67D0-411E-A789-8837CEB7CD67}">
+  <dimension ref="C15:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C18" s="6"/>
+      <c r="D18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C20" s="6"/>
+      <c r="D20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C21" s="6"/>
+      <c r="D21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>